--- a/config_6.29/shoping_config_vivo.xlsx
+++ b/config_6.29/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5369" uniqueCount="1858">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5896,6 +5896,12 @@
   </si>
   <si>
     <t>9800000,2592000</t>
+  </si>
+  <si>
+    <t>盛夏礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6794,8 +6800,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -6831,8 +6837,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6846,16 +6913,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6867,24 +6935,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6900,53 +6960,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6956,13 +6969,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7061,61 +7067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7133,13 +7085,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7151,37 +7163,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7193,25 +7199,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7251,17 +7257,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7292,6 +7292,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7303,24 +7336,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7339,15 +7354,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7356,10 +7362,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,133 +7374,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10247,14 +10253,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN670"/>
+  <dimension ref="A1:AN682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V618" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V660" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V644" sqref="V644"/>
+      <selection pane="bottomRight" activeCell="A671" sqref="$A671:$XFD682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -53413,6 +53419,822 @@
         <v>1</v>
       </c>
     </row>
+    <row r="671" spans="1:39">
+      <c r="A671" s="21">
+        <v>670</v>
+      </c>
+      <c r="B671" s="29">
+        <v>10587</v>
+      </c>
+      <c r="F671" s="21">
+        <v>1</v>
+      </c>
+      <c r="G671" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I671" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J671" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L671" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M671" s="28">
+        <v>0</v>
+      </c>
+      <c r="N671" s="28">
+        <v>0</v>
+      </c>
+      <c r="O671" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P671" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q671" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R671" s="53" t="s">
+        <v>1568</v>
+      </c>
+      <c r="W671" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X671" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y671" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z671" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA671" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:39">
+      <c r="A672" s="21">
+        <v>671</v>
+      </c>
+      <c r="B672" s="29">
+        <v>10588</v>
+      </c>
+      <c r="F672" s="21">
+        <v>1</v>
+      </c>
+      <c r="G672" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I672" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J672" s="28" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L672" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M672" s="28">
+        <v>0</v>
+      </c>
+      <c r="N672" s="28">
+        <v>0</v>
+      </c>
+      <c r="O672" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P672" s="29">
+        <v>1000</v>
+      </c>
+      <c r="Q672" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R672" s="53" t="s">
+        <v>1570</v>
+      </c>
+      <c r="W672" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X672" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y672" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z672" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA672" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:39">
+      <c r="A673" s="21">
+        <v>672</v>
+      </c>
+      <c r="B673" s="29">
+        <v>10589</v>
+      </c>
+      <c r="F673" s="21">
+        <v>1</v>
+      </c>
+      <c r="G673" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I673" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J673" s="28" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L673" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M673" s="28">
+        <v>0</v>
+      </c>
+      <c r="N673" s="28">
+        <v>0</v>
+      </c>
+      <c r="O673" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P673" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q673" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R673" s="53" t="s">
+        <v>1572</v>
+      </c>
+      <c r="W673" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X673" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y673" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z673" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA673" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:39">
+      <c r="A674" s="21">
+        <v>673</v>
+      </c>
+      <c r="B674" s="29">
+        <v>10590</v>
+      </c>
+      <c r="F674" s="21">
+        <v>1</v>
+      </c>
+      <c r="G674" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I674" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J674" s="28" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L674" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M674" s="28">
+        <v>0</v>
+      </c>
+      <c r="N674" s="28">
+        <v>0</v>
+      </c>
+      <c r="O674" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P674" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q674" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R674" s="53" t="s">
+        <v>1555</v>
+      </c>
+      <c r="W674" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X674" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y674" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z674" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA674" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:39">
+      <c r="A675" s="21">
+        <v>674</v>
+      </c>
+      <c r="B675" s="29">
+        <v>10591</v>
+      </c>
+      <c r="F675" s="21">
+        <v>1</v>
+      </c>
+      <c r="G675" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I675" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J675" s="28" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L675" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M675" s="28">
+        <v>0</v>
+      </c>
+      <c r="N675" s="28">
+        <v>0</v>
+      </c>
+      <c r="O675" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P675" s="29">
+        <v>3000</v>
+      </c>
+      <c r="Q675" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R675" s="53" t="s">
+        <v>1557</v>
+      </c>
+      <c r="W675" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X675" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y675" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z675" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA675" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:39">
+      <c r="A676" s="21">
+        <v>675</v>
+      </c>
+      <c r="B676" s="29">
+        <v>10592</v>
+      </c>
+      <c r="F676" s="21">
+        <v>1</v>
+      </c>
+      <c r="G676" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I676" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J676" s="28" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L676" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M676" s="28">
+        <v>0</v>
+      </c>
+      <c r="N676" s="28">
+        <v>0</v>
+      </c>
+      <c r="O676" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P676" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q676" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R676" s="53" t="s">
+        <v>1559</v>
+      </c>
+      <c r="W676" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X676" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y676" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z676" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA676" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:39">
+      <c r="A677" s="21">
+        <v>676</v>
+      </c>
+      <c r="B677" s="29">
+        <v>10593</v>
+      </c>
+      <c r="F677" s="21">
+        <v>1</v>
+      </c>
+      <c r="G677" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I677" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J677" s="28" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L677" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M677" s="28">
+        <v>0</v>
+      </c>
+      <c r="N677" s="28">
+        <v>0</v>
+      </c>
+      <c r="O677" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P677" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q677" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R677" s="53" t="s">
+        <v>1559</v>
+      </c>
+      <c r="W677" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X677" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y677" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z677" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA677" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:39">
+      <c r="A678" s="21">
+        <v>677</v>
+      </c>
+      <c r="B678" s="29">
+        <v>10594</v>
+      </c>
+      <c r="F678" s="21">
+        <v>1</v>
+      </c>
+      <c r="G678" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I678" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J678" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L678" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M678" s="28">
+        <v>0</v>
+      </c>
+      <c r="N678" s="28">
+        <v>0</v>
+      </c>
+      <c r="O678" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P678" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q678" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R678" s="53" t="s">
+        <v>1562</v>
+      </c>
+      <c r="W678" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X678" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y678" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z678" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA678" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:39">
+      <c r="A679" s="21">
+        <v>678</v>
+      </c>
+      <c r="B679" s="29">
+        <v>10595</v>
+      </c>
+      <c r="F679" s="21">
+        <v>1</v>
+      </c>
+      <c r="G679" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I679" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J679" s="28" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L679" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M679" s="28">
+        <v>0</v>
+      </c>
+      <c r="N679" s="28">
+        <v>0</v>
+      </c>
+      <c r="O679" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P679" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q679" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R679" s="53" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W679" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X679" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y679" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z679" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA679" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:39">
+      <c r="A680" s="21">
+        <v>679</v>
+      </c>
+      <c r="B680" s="29">
+        <v>10596</v>
+      </c>
+      <c r="F680" s="21">
+        <v>1</v>
+      </c>
+      <c r="G680" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I680" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J680" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L680" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M680" s="28">
+        <v>0</v>
+      </c>
+      <c r="N680" s="28">
+        <v>0</v>
+      </c>
+      <c r="O680" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P680" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q680" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R680" s="53" t="s">
+        <v>1562</v>
+      </c>
+      <c r="W680" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X680" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y680" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z680" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA680" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:39">
+      <c r="A681" s="21">
+        <v>680</v>
+      </c>
+      <c r="B681" s="29">
+        <v>10597</v>
+      </c>
+      <c r="F681" s="21">
+        <v>1</v>
+      </c>
+      <c r="G681" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I681" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J681" s="28" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L681" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M681" s="28">
+        <v>0</v>
+      </c>
+      <c r="N681" s="28">
+        <v>0</v>
+      </c>
+      <c r="O681" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P681" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q681" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R681" s="53" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W681" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X681" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y681" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z681" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA681" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:39">
+      <c r="A682" s="21">
+        <v>681</v>
+      </c>
+      <c r="B682" s="29">
+        <v>10598</v>
+      </c>
+      <c r="F682" s="21">
+        <v>1</v>
+      </c>
+      <c r="G682" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I682" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J682" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="L682" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M682" s="28">
+        <v>0</v>
+      </c>
+      <c r="N682" s="28">
+        <v>0</v>
+      </c>
+      <c r="O682" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P682" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q682" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R682" s="53" t="s">
+        <v>1566</v>
+      </c>
+      <c r="W682" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X682" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y682" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z682" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA682" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -53439,19 +54261,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -53459,7 +54281,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -53468,7 +54290,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -53476,7 +54298,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -53490,7 +54312,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -53504,7 +54326,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -53518,7 +54340,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -53532,7 +54354,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -53546,7 +54368,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -53560,7 +54382,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -53574,7 +54396,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -53588,7 +54410,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -53602,7 +54424,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -53616,7 +54438,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -53630,7 +54452,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -53644,7 +54466,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -53658,7 +54480,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -53672,7 +54494,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -53686,7 +54508,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -53700,7 +54522,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -53714,7 +54536,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -53728,7 +54550,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -53742,7 +54564,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -53756,7 +54578,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -53770,7 +54592,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -53784,7 +54606,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -53798,7 +54620,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -53812,7 +54634,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -53826,7 +54648,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -53840,7 +54662,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -53854,7 +54676,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -53868,7 +54690,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -53882,7 +54704,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -53896,7 +54718,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -53910,7 +54732,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -53924,7 +54746,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -53938,7 +54760,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -53952,7 +54774,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -53966,7 +54788,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -53980,7 +54802,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -53994,7 +54816,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -54008,7 +54830,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -54022,7 +54844,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -54036,7 +54858,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -54050,7 +54872,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -54064,7 +54886,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -54078,7 +54900,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -54092,7 +54914,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -54106,7 +54928,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -54120,7 +54942,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -54134,7 +54956,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -54148,7 +54970,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -54162,7 +54984,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -54176,7 +54998,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -54190,7 +55012,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -54204,7 +55026,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -54218,7 +55040,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -54232,7 +55054,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -54246,7 +55068,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -54260,7 +55082,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -54274,7 +55096,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -54288,7 +55110,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -54302,7 +55124,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -54316,7 +55138,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -54330,7 +55152,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -54344,7 +55166,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -54358,7 +55180,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -54372,7 +55194,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -54386,7 +55208,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -54400,7 +55222,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -54414,7 +55236,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -54428,7 +55250,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
@@ -54442,7 +55264,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -54456,7 +55278,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -54470,7 +55292,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
@@ -54484,7 +55306,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -54498,7 +55320,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
@@ -54512,7 +55334,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -54526,7 +55348,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -54540,7 +55362,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
@@ -54554,7 +55376,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
@@ -54568,7 +55390,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -54582,7 +55404,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -54596,7 +55418,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -54610,7 +55432,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -54624,7 +55446,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -54676,7 +55498,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -54688,19 +55510,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -54715,7 +55537,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -54760,7 +55582,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -54780,7 +55602,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -54807,22 +55629,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -54848,7 +55670,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -54878,19 +55700,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
+        <v>1757</v>
+      </c>
+      <c r="V3" s="12" t="s">
         <v>1755</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>1753</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -54916,7 +55738,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -54943,22 +55765,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -54984,7 +55806,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -55011,22 +55833,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -55052,7 +55874,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -55079,22 +55901,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -55120,7 +55942,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -55147,22 +55969,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -55185,7 +56007,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -55212,22 +56034,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -55251,7 +56073,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -55279,10 +56101,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -55290,10 +56112,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -55306,7 +56128,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -55324,7 +56146,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -55352,10 +56174,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -55363,10 +56185,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
+        <v>1757</v>
+      </c>
+      <c r="V10" s="13" t="s">
         <v>1755</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>1753</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -55379,7 +56201,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -55396,7 +56218,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -55426,19 +56248,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
+        <v>1757</v>
+      </c>
+      <c r="V11" s="12" t="s">
         <v>1755</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>1753</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -55464,7 +56286,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -55491,22 +56313,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -55532,7 +56354,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -55559,22 +56381,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="Q13" s="15" t="s">
+        <v>1783</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>1753</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>1784</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>1781</v>
       </c>
-      <c r="S13" s="15" t="s">
-        <v>1751</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>1782</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1779</v>
-      </c>
       <c r="V13" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -55600,7 +56422,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -55627,22 +56449,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -55666,7 +56488,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -55696,10 +56518,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -55707,10 +56529,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -55723,7 +56545,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -55743,7 +56565,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -55770,23 +56592,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -55811,7 +56633,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -55838,23 +56660,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -55879,7 +56701,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -55906,23 +56728,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -55947,7 +56769,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -55974,23 +56796,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -56015,7 +56837,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -56042,22 +56864,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -56081,7 +56903,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -56112,20 +56934,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -56154,7 +56976,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -56182,10 +57004,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -56193,10 +57015,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -56225,7 +57047,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -56253,10 +57075,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -56264,10 +57086,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -56289,14 +57111,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -56326,10 +57148,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -56337,10 +57159,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -56353,7 +57175,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -56373,7 +57195,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -56400,22 +57222,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -56478,13 +57300,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -56496,16 +57318,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -56546,7 +57368,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -56558,7 +57380,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -56567,7 +57389,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -56576,22 +57398,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -56602,7 +57424,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -56614,7 +57436,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -56623,7 +57445,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -56632,22 +57454,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -56661,7 +57483,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -56686,19 +57508,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -56709,7 +57531,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -56736,10 +57558,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -56750,7 +57572,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -56777,10 +57599,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -56791,7 +57613,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -56803,7 +57625,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -56812,7 +57634,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -56821,22 +57643,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -56850,10 +57672,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -56865,7 +57687,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -56880,22 +57702,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -56906,10 +57728,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -56924,16 +57746,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -56944,10 +57766,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -56962,16 +57784,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -56982,10 +57804,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -57000,16 +57822,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -57020,10 +57842,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -57038,16 +57860,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -57058,7 +57880,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -57082,16 +57904,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -57105,7 +57927,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -57129,16 +57951,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -57152,10 +57974,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -57176,16 +57998,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -57199,10 +58021,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -57218,13 +58040,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -57235,10 +58057,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -57254,13 +58076,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -57271,7 +58093,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -57290,13 +58112,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -57307,7 +58129,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -57326,13 +58148,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -57343,7 +58165,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -57361,16 +58183,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -57381,7 +58203,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -57399,16 +58221,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.29/shoping_config_vivo.xlsx
+++ b/config_6.29/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5369" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5405" uniqueCount="1859">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5902,6 +5902,9 @@
   </si>
   <si>
     <t>"jing_bi","fish_coin"</t>
+  </si>
+  <si>
+    <t>消暑礼包</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6800,9 +6803,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6838,26 +6841,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6875,25 +6900,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6912,47 +6937,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6968,9 +6955,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7067,13 +7070,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7091,7 +7106,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7103,121 +7220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7257,11 +7260,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7283,11 +7307,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7296,46 +7318,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7354,6 +7348,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7362,10 +7365,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7374,133 +7377,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10253,14 +10256,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN682"/>
+  <dimension ref="A1:AN688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="V660" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="$A671:$XFD682"/>
+      <selection pane="bottomRight" activeCell="A683" sqref="$A683:$XFD688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54235,6 +54238,396 @@
         <v>1</v>
       </c>
     </row>
+    <row r="683" spans="1:39">
+      <c r="A683" s="21">
+        <v>682</v>
+      </c>
+      <c r="B683" s="29">
+        <v>10599</v>
+      </c>
+      <c r="F683" s="21">
+        <v>1</v>
+      </c>
+      <c r="G683" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J683" s="28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L683" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M683" s="28">
+        <v>0</v>
+      </c>
+      <c r="N683" s="28">
+        <v>0</v>
+      </c>
+      <c r="O683" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P683" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q683" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R683" s="53" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W683" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X683" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y683" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z683" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA683" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH683" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI683" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL683" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM683" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:39">
+      <c r="A684" s="21">
+        <v>683</v>
+      </c>
+      <c r="B684" s="29">
+        <v>10600</v>
+      </c>
+      <c r="F684" s="21">
+        <v>1</v>
+      </c>
+      <c r="G684" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J684" s="28" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L684" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M684" s="28">
+        <v>0</v>
+      </c>
+      <c r="N684" s="28">
+        <v>0</v>
+      </c>
+      <c r="O684" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P684" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q684" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R684" s="53" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W684" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X684" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y684" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z684" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA684" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH684" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI684" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL684" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM684" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:39">
+      <c r="A685" s="21">
+        <v>684</v>
+      </c>
+      <c r="B685" s="29">
+        <v>10601</v>
+      </c>
+      <c r="F685" s="21">
+        <v>1</v>
+      </c>
+      <c r="G685" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J685" s="28" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L685" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M685" s="28">
+        <v>0</v>
+      </c>
+      <c r="N685" s="28">
+        <v>0</v>
+      </c>
+      <c r="O685" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P685" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q685" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R685" s="53" t="s">
+        <v>1586</v>
+      </c>
+      <c r="W685" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X685" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y685" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z685" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA685" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH685" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI685" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL685" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM685" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:39">
+      <c r="A686" s="21">
+        <v>685</v>
+      </c>
+      <c r="B686" s="29">
+        <v>10602</v>
+      </c>
+      <c r="F686" s="21">
+        <v>1</v>
+      </c>
+      <c r="G686" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J686" s="28" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L686" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M686" s="28">
+        <v>0</v>
+      </c>
+      <c r="N686" s="28">
+        <v>0</v>
+      </c>
+      <c r="O686" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P686" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q686" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R686" s="53" t="s">
+        <v>1588</v>
+      </c>
+      <c r="W686" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X686" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y686" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z686" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA686" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH686" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI686" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL686" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM686" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:39">
+      <c r="A687" s="21">
+        <v>686</v>
+      </c>
+      <c r="B687" s="29">
+        <v>10603</v>
+      </c>
+      <c r="F687" s="21">
+        <v>1</v>
+      </c>
+      <c r="G687" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J687" s="28" t="s">
+        <v>1589</v>
+      </c>
+      <c r="L687" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M687" s="28">
+        <v>0</v>
+      </c>
+      <c r="N687" s="28">
+        <v>0</v>
+      </c>
+      <c r="O687" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P687" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Q687" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R687" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="W687" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X687" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y687" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z687" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA687" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH687" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI687" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL687" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM687" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:39">
+      <c r="A688" s="21">
+        <v>687</v>
+      </c>
+      <c r="B688" s="29">
+        <v>10604</v>
+      </c>
+      <c r="F688" s="21">
+        <v>1</v>
+      </c>
+      <c r="G688" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J688" s="28" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L688" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M688" s="28">
+        <v>0</v>
+      </c>
+      <c r="N688" s="28">
+        <v>0</v>
+      </c>
+      <c r="O688" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P688" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q688" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R688" s="53" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W688" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X688" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y688" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z688" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA688" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH688" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI688" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL688" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM688" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -54261,19 +54654,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -54281,7 +54674,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -54290,7 +54683,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -54298,7 +54691,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -54312,7 +54705,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -54326,7 +54719,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -54340,7 +54733,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -54354,7 +54747,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -54368,7 +54761,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -54382,7 +54775,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -54396,7 +54789,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -54410,7 +54803,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -54424,7 +54817,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -54438,7 +54831,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -54452,7 +54845,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -54466,7 +54859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -54480,7 +54873,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -54494,7 +54887,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -54508,7 +54901,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -54522,7 +54915,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -54536,7 +54929,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -54550,7 +54943,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -54564,7 +54957,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -54578,7 +54971,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -54592,7 +54985,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -54606,7 +54999,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -54620,7 +55013,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -54634,7 +55027,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -54648,7 +55041,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -54662,7 +55055,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -54676,7 +55069,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -54690,7 +55083,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -54704,7 +55097,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -54718,7 +55111,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -54732,7 +55125,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -54746,7 +55139,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -54760,7 +55153,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -54774,7 +55167,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -54788,7 +55181,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -54802,7 +55195,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -54816,7 +55209,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -54830,7 +55223,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -54844,7 +55237,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -54858,7 +55251,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -54872,7 +55265,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -54886,7 +55279,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -54900,7 +55293,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -54914,7 +55307,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -54928,7 +55321,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -54942,7 +55335,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -54956,7 +55349,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -54970,7 +55363,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -54984,7 +55377,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -54998,7 +55391,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -55012,7 +55405,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -55026,7 +55419,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -55040,7 +55433,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -55054,7 +55447,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -55068,7 +55461,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -55082,7 +55475,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -55096,7 +55489,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -55110,7 +55503,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -55124,7 +55517,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -55138,7 +55531,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -55152,7 +55545,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -55166,7 +55559,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -55180,7 +55573,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -55194,7 +55587,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -55208,7 +55601,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -55222,7 +55615,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -55236,7 +55629,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -55250,7 +55643,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
@@ -55264,7 +55657,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -55278,7 +55671,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -55292,7 +55685,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
@@ -55306,7 +55699,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -55320,7 +55713,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
@@ -55334,7 +55727,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -55348,7 +55741,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -55362,7 +55755,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
@@ -55376,7 +55769,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
@@ -55390,7 +55783,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -55404,7 +55797,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -55418,7 +55811,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -55432,7 +55825,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -55446,7 +55839,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -55498,7 +55891,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -55510,19 +55903,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -55537,7 +55930,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -55582,7 +55975,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -55602,7 +55995,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -55629,22 +56022,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -55670,7 +56063,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -55700,19 +56093,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -55738,7 +56131,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -55765,22 +56158,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -55806,7 +56199,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -55833,22 +56226,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -55874,7 +56267,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -55901,22 +56294,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -55942,7 +56335,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -55969,22 +56362,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -56007,7 +56400,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -56034,22 +56427,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -56073,7 +56466,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -56101,10 +56494,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -56112,10 +56505,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -56128,7 +56521,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -56146,7 +56539,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -56174,10 +56567,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -56185,10 +56578,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -56201,7 +56594,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -56218,7 +56611,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -56248,19 +56641,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -56286,7 +56679,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -56313,22 +56706,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -56354,7 +56747,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -56381,22 +56774,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
+        <v>1783</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>1784</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>1754</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>1785</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>1782</v>
       </c>
-      <c r="Q13" s="15" t="s">
-        <v>1783</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>1753</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>1784</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1781</v>
-      </c>
       <c r="V13" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -56422,7 +56815,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -56449,22 +56842,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -56488,7 +56881,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -56518,10 +56911,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -56529,10 +56922,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -56545,7 +56938,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -56565,7 +56958,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -56592,23 +56985,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -56633,7 +57026,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -56660,23 +57053,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -56701,7 +57094,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -56728,23 +57121,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -56769,7 +57162,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -56796,23 +57189,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -56837,7 +57230,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -56864,22 +57257,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -56903,7 +57296,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -56934,20 +57327,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -56976,7 +57369,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -57004,10 +57397,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -57015,10 +57408,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -57047,7 +57440,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -57075,10 +57468,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -57086,10 +57479,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -57111,14 +57504,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -57148,10 +57541,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -57159,10 +57552,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -57175,7 +57568,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -57195,7 +57588,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -57222,22 +57615,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -57300,13 +57693,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -57318,16 +57711,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -57368,7 +57761,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -57380,7 +57773,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -57389,7 +57782,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -57398,22 +57791,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -57424,7 +57817,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -57436,7 +57829,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -57445,7 +57838,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -57454,22 +57847,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -57483,7 +57876,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -57508,19 +57901,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -57531,7 +57924,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -57558,10 +57951,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -57572,7 +57965,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -57599,10 +57992,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -57613,7 +58006,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -57625,7 +58018,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -57634,7 +58027,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -57643,22 +58036,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -57672,10 +58065,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -57687,7 +58080,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -57702,22 +58095,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -57728,10 +58121,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -57746,16 +58139,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -57766,10 +58159,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -57784,16 +58177,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -57804,10 +58197,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -57822,16 +58215,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -57842,10 +58235,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -57860,16 +58253,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -57880,7 +58273,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -57904,16 +58297,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -57927,7 +58320,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -57951,16 +58344,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -57974,10 +58367,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -57998,16 +58391,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -58021,10 +58414,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -58040,13 +58433,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -58057,10 +58450,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -58076,13 +58469,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -58093,7 +58486,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -58112,13 +58505,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -58129,7 +58522,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -58148,13 +58541,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -58165,7 +58558,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -58183,16 +58576,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -58203,7 +58596,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -58221,16 +58614,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
